--- a/Case_assignment_light.xlsx
+++ b/Case_assignment_light.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -122,69 +122,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Case is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Case name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Case Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case tab,  and click on existing Case to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Case is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case tab,  and select the existing  Case to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Case is deleted</x:t>
   </x:si>
   <x:si>
     <x:t>Verify Automatically Assign Users/Queues Case</x:t>
@@ -295,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J22" totalsRowShown="0">
-  <x:autoFilter ref="A1:J22"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
+  <x:autoFilter ref="A1:J11"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -601,7 +538,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J22"/>
+  <x:dimension ref="A1:J11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -614,7 +551,7 @@
     <x:col min="5" max="5" width="123.130625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="62.700625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="77.840624999999989" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -777,13 +714,13 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>13</x:v>
@@ -793,10 +730,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -811,36 +748,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -850,240 +779,18 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
